--- a/contratos/contratos-9-2018.xlsx
+++ b/contratos/contratos-9-2018.xlsx
@@ -940,7 +940,7 @@
     <t>JOANNAS ROBERTO ABEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1114,7 +1114,7 @@
     <t>PAROISSE RODOLFO DANIEL</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>PINO ADRIAN MATIAS</t>
@@ -1168,7 +1168,7 @@
     <t>SUCESION DE WAISENBERG OSCAR</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>GIORGI EDUARDO DANIEL</t>
@@ -1183,7 +1183,7 @@
     <t>MOLINA SONIA NOEMI</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>ROUSSEAUX MARTIN ANDRES</t>
@@ -1636,610 +1636,610 @@
     <t>76</t>
   </si>
   <si>
-    <t>19.020,00</t>
-  </si>
-  <si>
-    <t>22.500,00</t>
-  </si>
-  <si>
-    <t>11.730,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>2.779,00</t>
-  </si>
-  <si>
-    <t>9.420,00</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>4.390,00</t>
-  </si>
-  <si>
-    <t>54.716,20</t>
-  </si>
-  <si>
-    <t>430.760,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>812.859,40</t>
-  </si>
-  <si>
-    <t>23.161,60</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>267.376,61</t>
-  </si>
-  <si>
-    <t>457.500,00</t>
-  </si>
-  <si>
-    <t>339.105,80</t>
-  </si>
-  <si>
-    <t>39.075,00</t>
-  </si>
-  <si>
-    <t>93.680,00</t>
-  </si>
-  <si>
-    <t>33.867,20</t>
-  </si>
-  <si>
-    <t>1.229,03</t>
-  </si>
-  <si>
-    <t>9.975,00</t>
-  </si>
-  <si>
-    <t>1.365,00</t>
-  </si>
-  <si>
-    <t>2.490,00</t>
-  </si>
-  <si>
-    <t>11.200,00</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>9.440,00</t>
-  </si>
-  <si>
-    <t>5.902,96</t>
-  </si>
-  <si>
-    <t>74,00</t>
-  </si>
-  <si>
-    <t>1.640,00</t>
-  </si>
-  <si>
-    <t>109.310,00</t>
-  </si>
-  <si>
-    <t>507,36</t>
-  </si>
-  <si>
-    <t>18.270,10</t>
-  </si>
-  <si>
-    <t>2.009.947,80</t>
-  </si>
-  <si>
-    <t>26.777,94</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>6.573,99</t>
-  </si>
-  <si>
-    <t>8.550,00</t>
-  </si>
-  <si>
-    <t>1.477,00</t>
-  </si>
-  <si>
-    <t>24.474,00</t>
-  </si>
-  <si>
-    <t>18.755,00</t>
-  </si>
-  <si>
-    <t>10.400,00</t>
-  </si>
-  <si>
-    <t>44.209,73</t>
-  </si>
-  <si>
-    <t>5.200,00</t>
-  </si>
-  <si>
-    <t>10.015,00</t>
-  </si>
-  <si>
-    <t>1.834,80</t>
-  </si>
-  <si>
-    <t>9.716,79</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>5.300,00</t>
-  </si>
-  <si>
-    <t>5.881,00</t>
-  </si>
-  <si>
-    <t>9.940,00</t>
-  </si>
-  <si>
-    <t>14.945,62</t>
-  </si>
-  <si>
-    <t>282.000,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>647,35</t>
-  </si>
-  <si>
-    <t>1.990,00</t>
-  </si>
-  <si>
-    <t>7.812,90</t>
-  </si>
-  <si>
-    <t>3.001,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>43.324,59</t>
-  </si>
-  <si>
-    <t>1.760,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>59.500,00</t>
-  </si>
-  <si>
-    <t>29.910,00</t>
-  </si>
-  <si>
-    <t>65.600,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>9.735,90</t>
-  </si>
-  <si>
-    <t>3.612,00</t>
-  </si>
-  <si>
-    <t>144.000,00</t>
-  </si>
-  <si>
-    <t>1.329,99</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>5.922,40</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>3.260,00</t>
-  </si>
-  <si>
-    <t>4.700,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>15.500,00</t>
-  </si>
-  <si>
-    <t>228.750,00</t>
-  </si>
-  <si>
-    <t>10.836,00</t>
-  </si>
-  <si>
-    <t>9.700,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>8.280,00</t>
-  </si>
-  <si>
-    <t>2.438,00</t>
-  </si>
-  <si>
-    <t>517,29</t>
-  </si>
-  <si>
-    <t>814,90</t>
-  </si>
-  <si>
-    <t>6.330,00</t>
-  </si>
-  <si>
-    <t>4.194,00</t>
-  </si>
-  <si>
-    <t>9,39</t>
-  </si>
-  <si>
-    <t>5,95</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>4,52</t>
-  </si>
-  <si>
-    <t>8.064,21</t>
-  </si>
-  <si>
-    <t>22.266,11</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>1.179,75</t>
-  </si>
-  <si>
-    <t>15.120,00</t>
-  </si>
-  <si>
-    <t>4.162,95</t>
-  </si>
-  <si>
-    <t>2.934,00</t>
-  </si>
-  <si>
-    <t>4.117,52</t>
-  </si>
-  <si>
-    <t>31.983,00</t>
-  </si>
-  <si>
-    <t>25.240,00</t>
-  </si>
-  <si>
-    <t>505,00</t>
-  </si>
-  <si>
-    <t>10.140,00</t>
-  </si>
-  <si>
-    <t>11.510,00</t>
-  </si>
-  <si>
-    <t>22.888,97</t>
-  </si>
-  <si>
-    <t>3.469,98</t>
-  </si>
-  <si>
-    <t>14.485,01</t>
-  </si>
-  <si>
-    <t>865,80</t>
-  </si>
-  <si>
-    <t>345,00</t>
-  </si>
-  <si>
-    <t>53.183,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>2.294,70</t>
-  </si>
-  <si>
-    <t>6.300,00</t>
-  </si>
-  <si>
-    <t>768.000,00</t>
-  </si>
-  <si>
-    <t>937,00</t>
-  </si>
-  <si>
-    <t>6.360,00</t>
-  </si>
-  <si>
-    <t>25.400,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>185.000,00</t>
-  </si>
-  <si>
-    <t>2.173,09</t>
-  </si>
-  <si>
-    <t>3.651,10</t>
-  </si>
-  <si>
-    <t>23.372,00</t>
-  </si>
-  <si>
-    <t>25.430,00</t>
-  </si>
-  <si>
-    <t>6.061,00</t>
-  </si>
-  <si>
-    <t>1.560,00</t>
-  </si>
-  <si>
-    <t>6.510.000,00</t>
-  </si>
-  <si>
-    <t>50.925,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>17.017,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>118.111,44</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>61.153,40</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>8.600,00</t>
-  </si>
-  <si>
-    <t>8.800,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>11.020,00</t>
-  </si>
-  <si>
-    <t>11.800,00</t>
-  </si>
-  <si>
-    <t>617.412,04</t>
-  </si>
-  <si>
-    <t>9.864,00</t>
-  </si>
-  <si>
-    <t>25.300,76</t>
-  </si>
-  <si>
-    <t>1.671,40</t>
-  </si>
-  <si>
-    <t>3.055,00</t>
-  </si>
-  <si>
-    <t>1.820,50</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>19.710,00</t>
-  </si>
-  <si>
-    <t>2.620,00</t>
-  </si>
-  <si>
-    <t>5.340,00</t>
-  </si>
-  <si>
-    <t>1.836,00</t>
-  </si>
-  <si>
-    <t>810,00</t>
-  </si>
-  <si>
-    <t>4.300,00</t>
-  </si>
-  <si>
-    <t>26.594,33</t>
-  </si>
-  <si>
-    <t>3.218,60</t>
-  </si>
-  <si>
-    <t>4.970,00</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>9.945,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>9.124,11</t>
-  </si>
-  <si>
-    <t>480,00</t>
-  </si>
-  <si>
-    <t>7.023,95</t>
-  </si>
-  <si>
-    <t>480.000,00</t>
-  </si>
-  <si>
-    <t>4.730.174,63</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>37.300,00</t>
-  </si>
-  <si>
-    <t>11.500,00</t>
-  </si>
-  <si>
-    <t>3.450,00</t>
-  </si>
-  <si>
-    <t>57.200,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>9.770,00</t>
-  </si>
-  <si>
-    <t>525.000,00</t>
-  </si>
-  <si>
-    <t>65.800,00</t>
-  </si>
-  <si>
-    <t>2.240.000,00</t>
-  </si>
-  <si>
-    <t>462.874,62</t>
-  </si>
-  <si>
-    <t>799.012,50</t>
-  </si>
-  <si>
-    <t>13.050,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>2.872,86</t>
-  </si>
-  <si>
-    <t>15.600,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>23.220,00</t>
+    <t>19020.00</t>
+  </si>
+  <si>
+    <t>22500.00</t>
+  </si>
+  <si>
+    <t>11730.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>2779.00</t>
+  </si>
+  <si>
+    <t>9420.00</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>4390.00</t>
+  </si>
+  <si>
+    <t>54716.20</t>
+  </si>
+  <si>
+    <t>430760.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>812859.40</t>
+  </si>
+  <si>
+    <t>23161.60</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>267376.61</t>
+  </si>
+  <si>
+    <t>457500.00</t>
+  </si>
+  <si>
+    <t>339105.80</t>
+  </si>
+  <si>
+    <t>39075.00</t>
+  </si>
+  <si>
+    <t>93680.00</t>
+  </si>
+  <si>
+    <t>33867.20</t>
+  </si>
+  <si>
+    <t>1229.03</t>
+  </si>
+  <si>
+    <t>9975.00</t>
+  </si>
+  <si>
+    <t>1365.00</t>
+  </si>
+  <si>
+    <t>2490.00</t>
+  </si>
+  <si>
+    <t>11200.00</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>9440.00</t>
+  </si>
+  <si>
+    <t>5902.96</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>1640.00</t>
+  </si>
+  <si>
+    <t>109310.00</t>
+  </si>
+  <si>
+    <t>507.36</t>
+  </si>
+  <si>
+    <t>18270.10</t>
+  </si>
+  <si>
+    <t>2009947.80</t>
+  </si>
+  <si>
+    <t>26777.94</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>6573.99</t>
+  </si>
+  <si>
+    <t>8550.00</t>
+  </si>
+  <si>
+    <t>1477.00</t>
+  </si>
+  <si>
+    <t>24474.00</t>
+  </si>
+  <si>
+    <t>18755.00</t>
+  </si>
+  <si>
+    <t>10400.00</t>
+  </si>
+  <si>
+    <t>44209.73</t>
+  </si>
+  <si>
+    <t>5200.00</t>
+  </si>
+  <si>
+    <t>10015.00</t>
+  </si>
+  <si>
+    <t>1834.80</t>
+  </si>
+  <si>
+    <t>9716.79</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>5300.00</t>
+  </si>
+  <si>
+    <t>5881.00</t>
+  </si>
+  <si>
+    <t>9940.00</t>
+  </si>
+  <si>
+    <t>14945.62</t>
+  </si>
+  <si>
+    <t>282000.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>647.35</t>
+  </si>
+  <si>
+    <t>1990.00</t>
+  </si>
+  <si>
+    <t>7812.90</t>
+  </si>
+  <si>
+    <t>3001.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>43324.59</t>
+  </si>
+  <si>
+    <t>1760.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>59500.00</t>
+  </si>
+  <si>
+    <t>29910.00</t>
+  </si>
+  <si>
+    <t>65600.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>9735.90</t>
+  </si>
+  <si>
+    <t>3612.00</t>
+  </si>
+  <si>
+    <t>144000.00</t>
+  </si>
+  <si>
+    <t>1329.99</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>5922.40</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>3260.00</t>
+  </si>
+  <si>
+    <t>4700.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>228750.00</t>
+  </si>
+  <si>
+    <t>10836.00</t>
+  </si>
+  <si>
+    <t>9700.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>8280.00</t>
+  </si>
+  <si>
+    <t>2438.00</t>
+  </si>
+  <si>
+    <t>517.29</t>
+  </si>
+  <si>
+    <t>814.90</t>
+  </si>
+  <si>
+    <t>6330.00</t>
+  </si>
+  <si>
+    <t>4194.00</t>
+  </si>
+  <si>
+    <t>9.39</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.52</t>
+  </si>
+  <si>
+    <t>8064.21</t>
+  </si>
+  <si>
+    <t>22266.11</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>1179.75</t>
+  </si>
+  <si>
+    <t>15120.00</t>
+  </si>
+  <si>
+    <t>4162.95</t>
+  </si>
+  <si>
+    <t>2934.00</t>
+  </si>
+  <si>
+    <t>4117.52</t>
+  </si>
+  <si>
+    <t>31983.00</t>
+  </si>
+  <si>
+    <t>25240.00</t>
+  </si>
+  <si>
+    <t>505.00</t>
+  </si>
+  <si>
+    <t>10140.00</t>
+  </si>
+  <si>
+    <t>11510.00</t>
+  </si>
+  <si>
+    <t>22888.97</t>
+  </si>
+  <si>
+    <t>3469.98</t>
+  </si>
+  <si>
+    <t>14485.01</t>
+  </si>
+  <si>
+    <t>865.80</t>
+  </si>
+  <si>
+    <t>345.00</t>
+  </si>
+  <si>
+    <t>53183.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>2294.70</t>
+  </si>
+  <si>
+    <t>6300.00</t>
+  </si>
+  <si>
+    <t>768000.00</t>
+  </si>
+  <si>
+    <t>937.00</t>
+  </si>
+  <si>
+    <t>6360.00</t>
+  </si>
+  <si>
+    <t>25400.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>185000.00</t>
+  </si>
+  <si>
+    <t>2173.09</t>
+  </si>
+  <si>
+    <t>3651.10</t>
+  </si>
+  <si>
+    <t>23372.00</t>
+  </si>
+  <si>
+    <t>25430.00</t>
+  </si>
+  <si>
+    <t>6061.00</t>
+  </si>
+  <si>
+    <t>1560.00</t>
+  </si>
+  <si>
+    <t>6510000.00</t>
+  </si>
+  <si>
+    <t>50925.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>17017.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>118111.44</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>61153.40</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>8600.00</t>
+  </si>
+  <si>
+    <t>8800.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>11020.00</t>
+  </si>
+  <si>
+    <t>11800.00</t>
+  </si>
+  <si>
+    <t>617412.04</t>
+  </si>
+  <si>
+    <t>9864.00</t>
+  </si>
+  <si>
+    <t>25300.76</t>
+  </si>
+  <si>
+    <t>1671.40</t>
+  </si>
+  <si>
+    <t>3055.00</t>
+  </si>
+  <si>
+    <t>1820.50</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>19710.00</t>
+  </si>
+  <si>
+    <t>2620.00</t>
+  </si>
+  <si>
+    <t>5340.00</t>
+  </si>
+  <si>
+    <t>1836.00</t>
+  </si>
+  <si>
+    <t>810.00</t>
+  </si>
+  <si>
+    <t>4300.00</t>
+  </si>
+  <si>
+    <t>26594.33</t>
+  </si>
+  <si>
+    <t>3218.60</t>
+  </si>
+  <si>
+    <t>4970.00</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>9945.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>9124.11</t>
+  </si>
+  <si>
+    <t>480.00</t>
+  </si>
+  <si>
+    <t>7023.95</t>
+  </si>
+  <si>
+    <t>480000.00</t>
+  </si>
+  <si>
+    <t>4730174.63</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>37300.00</t>
+  </si>
+  <si>
+    <t>11500.00</t>
+  </si>
+  <si>
+    <t>3450.00</t>
+  </si>
+  <si>
+    <t>57200.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>9770.00</t>
+  </si>
+  <si>
+    <t>525000.00</t>
+  </si>
+  <si>
+    <t>65800.00</t>
+  </si>
+  <si>
+    <t>2240000.00</t>
+  </si>
+  <si>
+    <t>462874.62</t>
+  </si>
+  <si>
+    <t>799012.50</t>
+  </si>
+  <si>
+    <t>13050.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>2872.86</t>
+  </si>
+  <si>
+    <t>15600.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>23220.00</t>
   </si>
 </sst>
 </file>
